--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1404.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1404.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.910964641958529</v>
+        <v>1.19057559967041</v>
       </c>
       <c r="B1">
-        <v>2.608793490842914</v>
+        <v>1.895533084869385</v>
       </c>
       <c r="C1">
-        <v>2.776433641852626</v>
+        <v>6.401522636413574</v>
       </c>
       <c r="D1">
-        <v>3.37318375421246</v>
+        <v>2.284320592880249</v>
       </c>
       <c r="E1">
-        <v>0.9299125172897912</v>
+        <v>1.193129420280457</v>
       </c>
     </row>
   </sheetData>
